--- a/DESIGN/rules/ExternalSources/Main_ex.xlsx
+++ b/DESIGN/rules/ExternalSources/Main_ex.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jandelahoz/Downloads/"/>
     </mc:Choice>
@@ -107,6 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -687,9 +688,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.5" collapsed="false"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="11.1640625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="29" spans="2:5">
@@ -780,12 +781,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="9"/>
-    </row>
+    <row r="37" spans="2:5"/>
     <row r="38" spans="2:5" s="7" customFormat="1">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
@@ -855,7 +851,6 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B29:E29"/>
   </mergeCells>

--- a/DESIGN/rules/ExternalSources/Main_ex.xlsx
+++ b/DESIGN/rules/ExternalSources/Main_ex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jandelahoz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06319EC5-91CC-5B4E-B2F5-4227DC28A5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD777E0-FBD9-C740-9D07-CF28ECF217E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1420" windowWidth="26520" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -20,41 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>RETURN</t>
-  </si>
-  <si>
-    <t>1023881928</t>
-  </si>
-  <si>
-    <t>1010228244</t>
-  </si>
-  <si>
-    <t>1024510404</t>
-  </si>
-  <si>
-    <t>SimpleRules DoubleValue verifySarlaft(DoubleValue id)</t>
-  </si>
-  <si>
-    <t>(0 .. 1000000000]</t>
-  </si>
-  <si>
-    <t>(100000000 .. 1019999999]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>Datatype responseScoreTransunion</t>
   </si>
   <si>
+    <t>Boolean</t>
+  </si>
+  <si>
     <t>response</t>
   </si>
   <si>
-    <t>DoubleValue</t>
-  </si>
-  <si>
     <t>Rule</t>
   </si>
   <si>
@@ -101,6 +80,30 @@
   </si>
   <si>
     <t>R20</t>
+  </si>
+  <si>
+    <t>Datatype responseVerifySarlaft</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Rules responseScoreTransunion verifySarlaft (Double id)</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>Boolean res</t>
+  </si>
+  <si>
+    <t>new responseVerifySarlaft(res)</t>
+  </si>
+  <si>
+    <t>Rules responseVerifySarlaft verifySarlaft (Double id)</t>
   </si>
 </sst>
 </file>
@@ -108,47 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000001"/>
-      <name val="&quot;Franklin Gothik Book&quot;"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="&quot;Franklin Gothik Book&quot;"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="&quot;Franklin Gothik Book&quot;"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="&quot;Franklin Gothik Book&quot;"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="&quot;Franklin Gothik Book&quot;"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="&quot;Franklin Gothik Book&quot;"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="&quot;Franklin Gothik Book&quot;"/>
     </font>
     <font>
       <b/>
@@ -156,33 +122,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAD246"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -192,98 +143,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFFC91D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFC91D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000001"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -303,43 +173,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -680,179 +528,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B29:E48"/>
+  <dimension ref="A29:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="12.5" collapsed="false"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="11.1640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.1640625" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="29" spans="2:5">
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="14" t="s">
+      <c r="C35" s="2">
+        <v>1000000001</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1019999999</v>
+      </c>
+      <c r="E35" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
+      <c r="E46" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E47" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1000000001</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
+      <c r="B54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="8">
-        <v>0</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1000000000</v>
-      </c>
-      <c r="E34" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1000000001</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1019999999</v>
-      </c>
-      <c r="E35" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5"/>
-    <row r="38" spans="2:5" s="7" customFormat="1">
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="14" thickTop="1"/>
-    <row r="47" spans="2:5">
-      <c r="B47" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="10"/>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B47:C47"/>
+  <mergeCells count="4">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B43:E43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DESIGN/rules/ExternalSources/Main_ex.xlsx
+++ b/DESIGN/rules/ExternalSources/Main_ex.xlsx
@@ -536,10 +536,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.5" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.1640625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
@@ -623,8 +623,8 @@
       <c r="C35" s="2">
         <v>1000000001</v>
       </c>
-      <c r="D35" s="2">
-        <v>1019999999</v>
+      <c r="D35" s="2" t="n">
+        <v>2.019999999E9</v>
       </c>
       <c r="E35" s="2">
         <v>80</v>
